--- a/Develop/juwhan/서버/ChatBot/chatbot_data_handover.xlsx
+++ b/Develop/juwhan/서버/ChatBot/chatbot_data_handover.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wogus\OneDrive\바탕 화면\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTL\Desktop\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF981F-2452-4F4F-B7EA-C8AA78A62678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D981373-5F49-4A0F-B73D-E84209E5A015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wallet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +192,26 @@
   </si>
   <si>
     <t>버즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기타)을(를) 맡기러 오셨군요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 3일 10시 47분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월|일|시|분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,21 +576,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1373A46-C6FB-4AE1-AE85-9F8568CCDA82}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="38.08203125" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.125" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -602,13 +618,13 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -625,7 +641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -642,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -659,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -676,7 +692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -693,7 +709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -710,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -724,10 +740,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -741,10 +757,10 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -758,10 +774,10 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -775,10 +791,10 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -786,64 +802,75 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
